--- a/fogos1dual/fogos2.xlsx
+++ b/fogos1dual/fogos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\IncendioFlorestal\fogos1dual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0721F-31F8-43EC-B37C-7CC19FEC148E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8091C388-ADC5-4880-AAB7-CE5B970BDBB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="6900" xr2:uid="{63F9166B-6F17-4C5E-B7E0-12EB27E8F6D8}"/>
   </bookViews>
